--- a/format/sptj.xlsx
+++ b/format/sptj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C3888-D7A4-4F26-B97D-665E766AA227}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A142CDE-BC26-4A24-AD30-CFB66744552E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{755170B5-EA97-4957-AABA-A51FC7B30DDE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{755170B5-EA97-4957-AABA-A51FC7B30DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="SPTJ" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>SURAT PERNYATAAN TANGGUNG JAWAB</t>
   </si>
@@ -417,11 +417,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -431,9 +464,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -455,36 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,20 +806,20 @@
   </sheetPr>
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:I33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50:M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="3" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="3" width="3.77734375" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.26953125" customWidth="1"/>
+    <col min="16" max="16" width="4.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -839,26 +839,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -875,30 +875,30 @@
       <c r="O4" s="6"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>2</v>
@@ -906,17 +906,17 @@
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>4</v>
@@ -924,15 +924,15 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>6</v>
@@ -940,18 +940,18 @@
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="38" t="str">
+      <c r="G9" s="24" t="str">
         <f>IF(jenjang="SD","197/DPA/2019","198/DPA/2019")</f>
         <v>197/DPA/2019</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>8</v>
@@ -959,47 +959,47 @@
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="36" t="str">
+      <c r="G10" s="32" t="str">
         <f>IF(jenjang="SD","16.48","16.49")</f>
         <v>16.48</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:18" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
@@ -1007,20 +1007,20 @@
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="33">
         <v>726981</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="8" t="s">
         <v>15</v>
@@ -1028,64 +1028,64 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="33">
         <v>12640000</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="33">
         <v>0</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="33">
         <v>0</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="33">
         <v>0</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -1094,15 +1094,15 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="34">
+      <c r="J23" s="43">
         <f>SUM(G19:I22)</f>
         <v>12640000</v>
       </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1111,7 +1111,7 @@
       <c r="I24" s="10"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
         <v>22</v>
@@ -1119,51 +1119,51 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="33">
         <v>0</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="33">
         <v>0</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="33">
         <v>0</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -1172,21 +1172,21 @@
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="34">
+      <c r="J29" s="43">
         <f>SUM(G26:I28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="8" t="s">
         <v>28</v>
@@ -1194,15 +1194,15 @@
       <c r="D31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="33">
         <f>(G16+J23)-J29</f>
         <v>13366981</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -1210,40 +1210,40 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="26">
-        <v>25016981</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="33">
         <f>G31-G33</f>
-        <v>-11650000</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+        <v>13366981</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
@@ -1275,13 +1275,13 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
@@ -1289,78 +1289,79 @@
       </c>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="2:16" s="12" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
       <c r="P43" s="14"/>
     </row>
-    <row r="44" spans="2:16" s="12" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
       <c r="P44" s="14"/>
     </row>
-    <row r="45" spans="2:16" s="15" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
-      <c r="I45" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
+      <c r="I45" s="41" t="str">
+        <f>nama_sekolah</f>
+        <v>SD NEGERI BATUR 01</v>
+      </c>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="2:16" s="15" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="16"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="2:16" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="18"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="2:16" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="P48" s="19"/>
     </row>
-    <row r="49" spans="2:16" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
-      <c r="J49" s="33">
+      <c r="J49" s="42">
         <v>0</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
       <c r="P49" s="19"/>
     </row>
-    <row r="50" spans="2:16" s="10" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="P50" s="19"/>
     </row>
-    <row r="51" spans="2:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -1378,19 +1379,8 @@
       <c r="P51" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="27">
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="J50:M50"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
@@ -1407,6 +1397,17 @@
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="77" orientation="portrait" r:id="rId1"/>

--- a/format/sptj.xlsx
+++ b/format/sptj.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\amanbos\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A142CDE-BC26-4A24-AD30-CFB66744552E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787CB70-6A69-4988-8594-BB960BE287CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{755170B5-EA97-4957-AABA-A51FC7B30DDE}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,10 +417,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,47 +486,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,8 +809,8 @@
   </sheetPr>
   <dimension ref="B1:R51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50:M50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -841,21 +844,21 @@
     </row>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,13 +884,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -906,14 +909,14 @@
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
       <c r="P7" s="5"/>
     </row>
     <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,12 +927,12 @@
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,15 +943,15 @@
       <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24" t="str">
+      <c r="G9" s="38" t="str">
         <f>IF(jenjang="SD","197/DPA/2019","198/DPA/2019")</f>
         <v>197/DPA/2019</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
       <c r="P9" s="5"/>
     </row>
     <row r="10" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,15 +962,15 @@
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="32" t="str">
+      <c r="G10" s="36" t="str">
         <f>IF(jenjang="SD","16.48","16.49")</f>
         <v>16.48</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,11 +1010,11 @@
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="25">
         <v>726981</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1028,9 +1031,9 @@
       <c r="D18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="P18" s="5"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1039,11 +1042,11 @@
       <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="25">
         <v>12640000</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1052,11 +1055,11 @@
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="25">
         <v>0</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,11 +1068,11 @@
       <c r="D21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="25">
         <v>0</v>
       </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,11 +1081,11 @@
       <c r="D22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="25">
         <v>0</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1094,12 +1097,12 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="43">
+      <c r="J23" s="34">
         <f>SUM(G19:I22)</f>
         <v>12640000</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,9 +1122,9 @@
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1130,11 +1133,11 @@
       <c r="D26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="25">
         <v>0</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,11 +1146,11 @@
       <c r="D27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="25">
         <v>0</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,11 +1159,11 @@
       <c r="D28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="25">
         <v>0</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
@@ -1172,12 +1175,12 @@
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="43">
+      <c r="J29" s="34">
         <f>SUM(G26:I28)</f>
         <v>0</v>
       </c>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="P29" s="5"/>
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,12 +1197,12 @@
       <c r="D31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="25">
         <f>(G16+J23)-J29</f>
         <v>13366981</v>
       </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
       <c r="P31" s="5"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,11 +1219,11 @@
       <c r="D33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="26">
         <v>0</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,12 +1232,12 @@
       <c r="D34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="25">
         <f>G31-G33</f>
         <v>13366981</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,35 +1301,35 @@
     <row r="43" spans="2:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
       <c r="P43" s="14"/>
     </row>
     <row r="44" spans="2:16" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="P44" s="14"/>
     </row>
     <row r="45" spans="2:16" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16"/>
-      <c r="I45" s="41" t="str">
+      <c r="I45" s="32" t="str">
         <f>nama_sekolah</f>
         <v>SD NEGERI BATUR 01</v>
       </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
       <c r="P45" s="17"/>
     </row>
     <row r="46" spans="2:16" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,22 +1346,22 @@
     </row>
     <row r="49" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="18"/>
-      <c r="J49" s="42">
+      <c r="J49" s="33">
         <v>0</v>
       </c>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="P49" s="19"/>
     </row>
     <row r="50" spans="2:16" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18"/>
-      <c r="J50" s="35" t="s">
+      <c r="J50" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
       <c r="P50" s="19"/>
     </row>
     <row r="51" spans="2:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,6 +1384,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="27">
+    <mergeCell ref="G9:L9"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="J50:M50"/>
     <mergeCell ref="G21:I21"/>
     <mergeCell ref="G22:I22"/>
@@ -1397,17 +1411,6 @@
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G9:L9"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="14" scale="77" orientation="portrait" r:id="rId1"/>
